--- a/test_data/test_rareVariants/test3/test3_results_freqFilter_20pc.xlsx
+++ b/test_data/test_rareVariants/test3/test3_results_freqFilter_20pc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">gene name</t>
   </si>
@@ -95,10 +95,28 @@
     <t xml:space="preserve">pop1_vs_pop2_Dn1</t>
   </si>
   <si>
+    <t xml:space="preserve">test_data/test_rareVariants/test3/test3.plusAncs.fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop1_anc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop2_anc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop1_vs_pop2_Dn2</t>
+  </si>
+  <si>
     <t xml:space="preserve">test_data/test_rareVariants/test3/test3a.fa</t>
   </si>
   <si>
-    <t xml:space="preserve">pop1_vs_pop2_Dn2</t>
+    <t xml:space="preserve">pop1_vs_pop2_Dn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_data/test_rareVariants/test3/test3a.plusAncs.fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop1_vs_pop2_Dn4</t>
   </si>
   <si>
     <t xml:space="preserve">test_data/test_rareVariants/test3/test3b.fa</t>
@@ -108,12 +126,18 @@
   </si>
   <si>
     <t xml:space="preserve">not signif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop1_vs_pop2_Dn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_data/test_rareVariants/test3/test3b.plusAncs.fa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
@@ -468,17 +492,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="120" showGridLines="1" tabSelected="1">
+    <sheetView workbookViewId="0" zoomScale="120" showGridLines="1" tabSelected="true">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="19.57" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="51.39625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="62.005" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="10.14" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.03375" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="16.03375" hidden="0" customWidth="1"/>
@@ -629,13 +653,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
@@ -650,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>25</v>
@@ -683,10 +707,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>11</v>
@@ -719,28 +743,210 @@
         <v>25</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>31</v>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
